--- a/medicine/Enfance/Sa_Majesté_des_mouches/Sa_Majesté_des_mouches.xlsx
+++ b/medicine/Enfance/Sa_Majesté_des_mouches/Sa_Majesté_des_mouches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sa_Majest%C3%A9_des_mouches</t>
+          <t>Sa_Majesté_des_mouches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sa Majesté des mouches (titre original : Lord of the Flies) est un roman de l'auteur britannique William Golding publié en 1954. L'histoire se déroule durant ce qui semble être une Troisième Guerre mondiale. Prenant le prétexte de l'arrivée accidentelle d'un groupe d'enfants sur une île déserte du Pacifique, il traite avec pessimisme de l'organisation sociale, du pouvoir et de la loi. Son titre est une traduction littérale du nom de Belzébuth (en hébreu, בעל זבוב), divinité païenne considérée dans la tradition chrétienne comme chef des démons.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sa_Majest%C3%A9_des_mouches</t>
+          <t>Sa_Majesté_des_mouches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un avion s’écrase sur une île, en plein océan Pacifique, avec à son bord un groupe d’écoliers anglais. Aucun adulte ne survit au crash et les enfants se trouvent livrés à eux-mêmes. Le livre commence par le rassemblement des enfants survivants sur l'île, autour du personnage principal de l'histoire, Ralph, qu'ils élisent tout de suite comme chef de leur tribu. Avec leurs personnalités très diverses, les enfants forment à eux tous un reflet de la société. Ralph incarne ainsi le leader, il représente certains idéaux de la société — l'ordre, la sécurité, la démocratie, l'égalité — et il tente d’inculquer le sens des responsabilités et de la discipline au groupe, même si c'est en vain. Il trouve une conque et s'en sert pour rassembler les enfants, en soufflant dedans pour produire un son puissant. Le coquillage devient alors  un instrument de pouvoir politique et le symbole de leur petite démocratie, utilisé pour organiser des « meetings » et distribuer des tours de parole. Contrairement aux autres enfants, Ralph met tout en œuvre pour qu'on vienne les secourir.
 Un deuxième personnage notable est surnommé « Porcinet ». Son vrai nom n'est jamais cité dans le livre. Il est le souffre-douleur du groupe, celui dont on se moque toujours. Ralph essaie souvent de détendre l'atmosphère, quand un conflit éclate, en se moquant de lui pour détourner l'attention. C'est un garçon intelligent, avisé et qui a un grand sens pratique mais qui n'arrive jamais à se faire écouter à cause de son obésité, de son asthme et de sa myopie. Il réussit cependant à se rapprocher du pouvoir en se liant d'amitié avec Ralph, dont il devient très proche.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sa_Majest%C3%A9_des_mouches</t>
+          <t>Sa_Majesté_des_mouches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,13 +566,15 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ralph, le personnage principal, est l'enfant le plus intelligent de l'île, presque adolescent, qui organise le groupe en utilisant un symbole fort de communication et de rassemblement, la conque ; il symbolise la démocratie.
 Jack, le fougueux chef du chœur d'enfants qui prend peu à peu le contrôle du groupe, représente le pouvoir guerrier, brutal et violent mais charismatique et aventureux — par opposition aux contraintes et à la raison imposées par Ralph.
 Roger, le second de Jack dans la nouvelle hiérarchie, représente la cruauté brute et inquiétante, le plaisir d'infliger la douleur ou de tuer et finalement la menace de la mort, quelle que soit l'idéologie dont elle se réclame.
 Porcinet ou Piggy, l'obèse intellectuel et fragile dont les lunettes sont utilisées pour faire le feu, représente le savoir et la connaissance mais aussi la dépendance et la faiblesse. Méprisé par le pouvoir guerrier, il lui est pourtant vital : le feu qu'il est capable de créer est à la fois la seule chance de salut et le symbole du pouvoir par excellence. L'instrument de ce pouvoir, les lunettes, finit par être volé par Jack et leur propriétaire écrasé par un rocher poussé du haut d'une falaise.
-Simon, l'enfant courageux qui n'hésite pas à défier ses peurs représente la sagesse et la vérité — il sera le premier tué parmi les enfants, sacrifié lors d'une fête orgiaque sanglante sur l'autel des superstitions qu'il était justement sur le point de détruire en apportant la vérité. Simon est le plus souvent interprété comme une figure christique en raison de sa capacité à voir à travers les idées fausses, contrairement au reste des garçons, et les événements qu'il vit dans le livre qui sont parallèles à ceux de la vie de Jésus[1].
+Simon, l'enfant courageux qui n'hésite pas à défier ses peurs représente la sagesse et la vérité — il sera le premier tué parmi les enfants, sacrifié lors d'une fête orgiaque sanglante sur l'autel des superstitions qu'il était justement sur le point de détruire en apportant la vérité. Simon est le plus souvent interprété comme une figure christique en raison de sa capacité à voir à travers les idées fausses, contrairement au reste des garçons, et les événements qu'il vit dans le livre qui sont parallèles à ceux de la vie de Jésus.
 Les jumeaux Eric-et-Sam (Sam et Éric) ainsi que les autres enfants du groupe, ballottés entre les deux pouvoirs qui s'affrontent, peuvent représenter le peuple qui se débrouille comme il peut pour survivre.
 Percival, il est le premier à parler du monstre et à dire qu'il l'a vu. Il fait partie des plus jeunes du groupe.</t>
         </is>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sa_Majest%C3%A9_des_mouches</t>
+          <t>Sa_Majesté_des_mouches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,13 +604,15 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre a été classé en 68e position de la liste établie par l'American Library Association des livres les plus controversés des années 1990[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre a été classé en 68e position de la liste établie par l'American Library Association des livres les plus controversés des années 1990.
 Le livre est classé 41e de la liste proposée en 1998 par l'éditeur Modern Library des 100 meilleurs romans du vingtième siècle. Une liste complémentaire, d'après un sondage en ligne proposé aux lecteurs en 1999, le place en 25e position.
-Le livre figure en 70e position du Big Read, un sondage réalisé en 2003 par la BBC sur les livres préférés des lecteurs britanniques[3].
-Le livre fait partie de la liste dressée en 2005 par le Time Magazine des 100 meilleurs livres de langue anglaise publiés depuis 1923[4]
-Un article du Guardian de mai 2020[5] rapporte un événement réel similaire à celui que présente le roman, ayant eu lieu en 1965. Un groupe d'adolescents tongiens qui avaient pris un voilier est pris dans une tempête, dérive plusieurs jours et s'échoue sur l'île déserte d'ʻAta. Tenus pour morts par leur famille, ils restent 15 mois sur cette île avant d'être secourus. Ils arrivent à s'organiser, cultivent un jardin, construisent une maison et gèrent une eau rare, sans dissension majeure pendant cette longue période[6]. L'auteur Rutger Bregman s'appuie sur cet épisode pour avancer que le tableau dressé par Golding et son pessimisme ne sont pas réalistes[5].
+Le livre figure en 70e position du Big Read, un sondage réalisé en 2003 par la BBC sur les livres préférés des lecteurs britanniques.
+Le livre fait partie de la liste dressée en 2005 par le Time Magazine des 100 meilleurs livres de langue anglaise publiés depuis 1923
+Un article du Guardian de mai 2020 rapporte un événement réel similaire à celui que présente le roman, ayant eu lieu en 1965. Un groupe d'adolescents tongiens qui avaient pris un voilier est pris dans une tempête, dérive plusieurs jours et s'échoue sur l'île déserte d'ʻAta. Tenus pour morts par leur famille, ils restent 15 mois sur cette île avant d'être secourus. Ils arrivent à s'organiser, cultivent un jardin, construisent une maison et gèrent une eau rare, sans dissension majeure pendant cette longue période. L'auteur Rutger Bregman s'appuie sur cet épisode pour avancer que le tableau dressé par Golding et son pessimisme ne sont pas réalistes.
 </t>
         </is>
       </c>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sa_Majest%C3%A9_des_mouches</t>
+          <t>Sa_Majesté_des_mouches</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,11 +643,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cinéma
-1963 : Sa Majesté des mouches (Lord of the Flies), film britannique de Peter Brook
-1990 : Sa Majesté des mouches (Lord of the Flies), film américain de Harry Hook, connu aussi sous le titre français : L'Île oubliée
-Théâtre
-1996 : adaptation de Nigel Williams (1996), traduite en français par Ahmed Madani (sous le même titre que le roman original), éditée dans la collection « Théâtre » par L'École des Loisirs, en 2001  (ISBN 221106017X)</t>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1963 : Sa Majesté des mouches (Lord of the Flies), film britannique de Peter Brook
+1990 : Sa Majesté des mouches (Lord of the Flies), film américain de Harry Hook, connu aussi sous le titre français : L'Île oubliée</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sa_Majesté_des_mouches</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sa_Majest%C3%A9_des_mouches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1996 : adaptation de Nigel Williams (1996), traduite en français par Ahmed Madani (sous le même titre que le roman original), éditée dans la collection « Théâtre » par L'École des Loisirs, en 2001  (ISBN 221106017X)</t>
         </is>
       </c>
     </row>
